--- a/film_insight/data/douban_data.xlsx
+++ b/film_insight/data/douban_data.xlsx
@@ -35,7 +35,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>评分</t>
+    <t>score</t>
   </si>
   <si>
     <t>content</t>
@@ -260,10 +260,10 @@
     <t>这种视角总是要有的，但剧情和细节都有点过于浅白。说英语的 "德国人" 也不够有说服力或者至少有点怪。演Shmuel的小孩儿挺个性帅。</t>
   </si>
   <si>
-    <t>评分为0</t>
-  </si>
-  <si>
-    <t>数据出错</t>
+    <t>score 0</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>百万犹太人被驱赶进那个焚尸炉房，不如一个纳粹小孩进去来的震撼。</t>
@@ -1995,7 +1995,7 @@
     <t>生命 爱 希望</t>
   </si>
   <si>
-    <t>虽短但细节颇多 意味深长                         -毛概课堂2020.9.24晚7:55</t>
+    <t xml:space="preserve">虽短但细节颇多 意味深长                     </t>
   </si>
   <si>
     <t>5月9日是俄国的胜利日。</t>
@@ -5195,8 +5195,8 @@
   <sheetPr/>
   <dimension ref="A1:D1399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1198" workbookViewId="0">
-      <selection activeCell="I1213" sqref="I1213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
